--- a/natmiOut/OldD0/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.3446437632756</v>
+        <v>163.9108346666667</v>
       </c>
       <c r="H2">
-        <v>54.3446437632756</v>
+        <v>491.732504</v>
       </c>
       <c r="I2">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348239</v>
       </c>
       <c r="J2">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N2">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O2">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P2">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q2">
-        <v>126.8322230594534</v>
+        <v>4123.249767813647</v>
       </c>
       <c r="R2">
-        <v>126.8322230594534</v>
+        <v>37109.24791032283</v>
       </c>
       <c r="S2">
-        <v>0.4833425511390771</v>
+        <v>0.8174819568687571</v>
       </c>
       <c r="T2">
-        <v>0.4833425511390771</v>
+        <v>0.8174819568687574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.3446437632756</v>
+        <v>163.9108346666667</v>
       </c>
       <c r="H3">
-        <v>54.3446437632756</v>
+        <v>491.732504</v>
       </c>
       <c r="I3">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348239</v>
       </c>
       <c r="J3">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N3">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P3">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q3">
-        <v>33.49991265137526</v>
+        <v>103.2883578282551</v>
       </c>
       <c r="R3">
-        <v>33.49991265137526</v>
+        <v>929.5952204542959</v>
       </c>
       <c r="S3">
-        <v>0.1276641917429918</v>
+        <v>0.02047811159496524</v>
       </c>
       <c r="T3">
-        <v>0.1276641917429918</v>
+        <v>0.02047811159496525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.3446437632756</v>
+        <v>163.9108346666667</v>
       </c>
       <c r="H4">
-        <v>54.3446437632756</v>
+        <v>491.732504</v>
       </c>
       <c r="I4">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348239</v>
       </c>
       <c r="J4">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P4">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q4">
-        <v>7.881601196667702</v>
+        <v>23.78603004654311</v>
       </c>
       <c r="R4">
-        <v>7.881601196667702</v>
+        <v>214.074270418888</v>
       </c>
       <c r="S4">
-        <v>0.03003584686576405</v>
+        <v>0.00471585557110154</v>
       </c>
       <c r="T4">
-        <v>0.03003584686576405</v>
+        <v>0.004715855571101541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.1835632453676</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H5">
-        <v>29.1835632453676</v>
+        <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="J5">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N5">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O5">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P5">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q5">
-        <v>68.11004630611691</v>
+        <v>738.3985464032954</v>
       </c>
       <c r="R5">
-        <v>68.11004630611691</v>
+        <v>6645.586917629658</v>
       </c>
       <c r="S5">
-        <v>0.2595593039819821</v>
+        <v>0.1463960523019408</v>
       </c>
       <c r="T5">
-        <v>0.2595593039819821</v>
+        <v>0.1463960523019408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.1835632453676</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H6">
-        <v>29.1835632453676</v>
+        <v>88.060289</v>
       </c>
       <c r="I6">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="J6">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N6">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P6">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q6">
-        <v>17.98975486589468</v>
+        <v>18.49705391997344</v>
       </c>
       <c r="R6">
-        <v>17.98975486589468</v>
+        <v>166.473485279761</v>
       </c>
       <c r="S6">
-        <v>0.06855682098367245</v>
+        <v>0.003667254880565899</v>
       </c>
       <c r="T6">
-        <v>0.06855682098367245</v>
+        <v>0.003667254880565899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.1835632453676</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H7">
-        <v>29.1835632453676</v>
+        <v>88.060289</v>
       </c>
       <c r="I7">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="J7">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P7">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q7">
-        <v>4.232490841225323</v>
+        <v>4.259642515031445</v>
       </c>
       <c r="R7">
-        <v>4.232490841225323</v>
+        <v>38.336782635283</v>
       </c>
       <c r="S7">
-        <v>0.0161295203342109</v>
+        <v>0.0008445233965527357</v>
       </c>
       <c r="T7">
-        <v>0.0161295203342109</v>
+        <v>0.0008445233965527357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.24719579985533</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H8">
-        <v>1.24719579985533</v>
+        <v>3.744116</v>
       </c>
       <c r="I8">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="J8">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N8">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O8">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P8">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q8">
-        <v>2.910767371576015</v>
+        <v>31.39496637315511</v>
       </c>
       <c r="R8">
-        <v>2.910767371576015</v>
+        <v>282.554697358396</v>
       </c>
       <c r="S8">
-        <v>0.01109258903780662</v>
+        <v>0.006224415204457633</v>
       </c>
       <c r="T8">
-        <v>0.01109258903780662</v>
+        <v>0.006224415204457634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.24719579985533</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H9">
-        <v>1.24719579985533</v>
+        <v>3.744116</v>
       </c>
       <c r="I9">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="J9">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N9">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O9">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P9">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q9">
-        <v>0.7688145042649062</v>
+        <v>0.7864511497871111</v>
       </c>
       <c r="R9">
-        <v>0.7688145042649062</v>
+        <v>7.078060348084</v>
       </c>
       <c r="S9">
-        <v>0.002929860841987564</v>
+        <v>0.0001559230367095987</v>
       </c>
       <c r="T9">
-        <v>0.002929860841987564</v>
+        <v>0.0001559230367095987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24719579985533</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H10">
-        <v>1.24719579985533</v>
+        <v>3.744116</v>
       </c>
       <c r="I10">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="J10">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N10">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O10">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P10">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q10">
-        <v>0.1808807497467016</v>
+        <v>0.1811099631391111</v>
       </c>
       <c r="R10">
-        <v>0.1808807497467016</v>
+        <v>1.629989668252</v>
       </c>
       <c r="S10">
-        <v>0.0006893150725075409</v>
+        <v>3.590714494938169E-05</v>
       </c>
       <c r="T10">
-        <v>0.0006893150725075409</v>
+        <v>3.59071449493817E-05</v>
       </c>
     </row>
   </sheetData>
